--- a/tests/fixtures/orderforms/1508.31.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.31.fastq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68CAF59-25E5-3F47-ADEE-8E4F055052EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205222EE-0208-5D48-8D38-9986E2CC006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30660" yWindow="-780" windowWidth="28800" windowHeight="15980" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2540" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="description" localSheetId="2">'Drop down lists'!$D$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="750">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>canfam3</t>
   </si>
   <si>
-    <t>This information is required for Balsamic QC analysis</t>
-  </si>
-  <si>
     <t>UDF/Reference Genome Microbial</t>
   </si>
   <si>
@@ -2513,9 +2510,6 @@
     <t>## PANEL ANALYSIS, NO % READS GUARANTEED##</t>
   </si>
   <si>
-    <t xml:space="preserve">New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) </t>
-  </si>
-  <si>
     <t>No delivery</t>
   </si>
   <si>
@@ -2706,12 +2700,6 @@
       </rPr>
       <t>No delivery. Mainly used for in-house testning.</t>
     </r>
-  </si>
-  <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
-    <t>Added fibroblastas as option for Sample Source</t>
   </si>
   <si>
     <t>Tomte</t>
@@ -2977,6 +2965,21 @@
       </rPr>
       <t xml:space="preserve"> = No analysis will be done, only sequencing and delivery of raw data (fastq-files).</t>
     </r>
+  </si>
+  <si>
+    <t>RNAPOAR400</t>
+  </si>
+  <si>
+    <t>New Application tags: PAZKTTR020, PAZKTTR060, PAZKTTR100 (more info here: https://clinical.scilifelab.se/applications) and RNAPOAR400</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>Added fibroblast as option for Sample Source</t>
+  </si>
+  <si>
+    <t>This information is required for Balsamic QC and Tomte analyses</t>
   </si>
   <si>
     <t>fastqsample1</t>
@@ -5070,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5084,7 +5087,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="92" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5100,32 +5103,32 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="93" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="93" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="93" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="93" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5150,22 +5153,22 @@
     </row>
     <row r="19" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="99" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
@@ -5175,7 +5178,7 @@
     </row>
     <row r="24" spans="1:5" s="119" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5185,7 +5188,7 @@
     </row>
     <row r="26" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
@@ -5212,7 +5215,7 @@
     </row>
     <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,7 +5245,7 @@
     </row>
     <row r="36" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5287,7 +5290,7 @@
     </row>
     <row r="45" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5302,12 +5305,12 @@
     </row>
     <row r="48" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="143" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -5342,17 +5345,17 @@
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -5405,7 +5408,7 @@
       <c r="A77" s="95"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uiDu0kWyLqDl2EviS5tsN51JYrHADNIue5Z39ZD6dRlPQTQm/RJZnWB+MvsHXT+1r+VnUByEV0kkQPvQ3/r14Q==" saltValue="OoRrP3GjfGX9s8cF/Ov5pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Az2wlLBbKcA2IaDpdwqO+rUGyaVDITbOniexAyBq5l3N8zZMMPGngzDY9jolSmIMnBVScpasvuZZ1Ozohev9rQ==" saltValue="KbFuZSXuW5Z4rDgXrcdlGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -5427,8 +5430,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -5458,7 +5461,7 @@
     <col min="26" max="26" width="17.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="6.6640625" style="2" customWidth="1"/>
     <col min="28" max="31" width="8.83203125" style="2"/>
-    <col min="32" max="32" width="15.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="2" customWidth="1"/>
     <col min="33" max="33" width="8.83203125" style="2"/>
     <col min="34" max="35" width="10.6640625" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.83203125" style="6"/>
@@ -11782,7 +11785,7 @@
       <c r="AD9" s="161"/>
       <c r="AE9" s="33"/>
       <c r="AF9" s="139" t="s">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="166" t="s">
@@ -12908,7 +12911,7 @@
       </c>
       <c r="AE11" s="48"/>
       <c r="AF11" s="140" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG11" s="48"/>
       <c r="AH11" s="39" t="s">
@@ -12918,7 +12921,7 @@
         <v>509</v>
       </c>
       <c r="AJ11" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK11" s="39" t="s">
         <v>37</v>
@@ -12989,7 +12992,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>48</v>
@@ -13052,7 +13055,7 @@
       </c>
       <c r="AE13" s="61"/>
       <c r="AF13" s="141" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG13" s="61"/>
       <c r="AH13" s="55" t="s">
@@ -13062,7 +13065,7 @@
         <v>503</v>
       </c>
       <c r="AJ13" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AK13" s="55" t="s">
         <v>60</v>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B15" s="67" t="s">
         <v>72</v>
@@ -13127,7 +13130,7 @@
         <v>521</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F15" s="68" t="s">
         <v>81</v>
@@ -13151,14 +13154,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="113" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N15" s="85" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="71" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q15" s="86" t="s">
         <v>78</v>
@@ -13196,13 +13199,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="71" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AK15" s="89">
         <v>10</v>
       </c>
       <c r="AL15" s="71" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14197,7 +14200,7 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B16" s="67" t="s">
         <v>72</v>
@@ -14209,7 +14212,7 @@
         <v>521</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>81</v>
@@ -14233,7 +14236,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="113" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N16" s="85" t="s">
         <v>80</v>
@@ -15263,7 +15266,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="66" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>72</v>
@@ -15275,7 +15278,7 @@
         <v>521</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F17" s="68" t="s">
         <v>92</v>
@@ -15299,7 +15302,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N17" s="85" t="s">
         <v>80</v>
@@ -16325,7 +16328,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="66" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>72</v>
@@ -16337,7 +16340,7 @@
         <v>521</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>92</v>
@@ -16361,7 +16364,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="113" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N18" s="85" t="s">
         <v>80</v>
@@ -17387,7 +17390,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>72</v>
@@ -17399,7 +17402,7 @@
         <v>521</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>457</v>
@@ -17423,7 +17426,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="113" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N19" s="85" t="s">
         <v>80</v>
@@ -18449,7 +18452,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="66" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>72</v>
@@ -18461,7 +18464,7 @@
         <v>521</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>474</v>
@@ -18485,7 +18488,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="113" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N20" s="85" t="s">
         <v>80</v>
@@ -19511,7 +19514,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="66" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>72</v>
@@ -19523,7 +19526,7 @@
         <v>521</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>474</v>
@@ -19547,7 +19550,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="113" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N21" s="85" t="s">
         <v>80</v>
@@ -20573,7 +20576,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="66" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>72</v>
@@ -20585,7 +20588,7 @@
         <v>521</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F22" s="68" t="s">
         <v>458</v>
@@ -20609,7 +20612,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="113" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N22" s="85" t="s">
         <v>80</v>
@@ -21635,7 +21638,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>72</v>
@@ -21647,7 +21650,7 @@
         <v>521</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>459</v>
@@ -21671,7 +21674,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N23" s="85" t="s">
         <v>80</v>
@@ -22697,7 +22700,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="66" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>72</v>
@@ -22709,7 +22712,7 @@
         <v>521</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>475</v>
@@ -22733,7 +22736,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N24" s="85" t="s">
         <v>80</v>
@@ -23759,7 +23762,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>72</v>
@@ -23771,7 +23774,7 @@
         <v>521</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>475</v>
@@ -23795,7 +23798,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N25" s="85" t="s">
         <v>80</v>
@@ -24821,7 +24824,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>72</v>
@@ -24833,7 +24836,7 @@
         <v>521</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>460</v>
@@ -24857,7 +24860,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N26" s="85" t="s">
         <v>80</v>
@@ -25883,7 +25886,7 @@
     </row>
     <row r="27" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>72</v>
@@ -25895,7 +25898,7 @@
         <v>521</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>131</v>
@@ -25919,7 +25922,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="113" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N27" s="85" t="s">
         <v>80</v>
@@ -25955,7 +25958,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="66" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>72</v>
@@ -25967,7 +25970,7 @@
         <v>521</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>131</v>
@@ -25991,7 +25994,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="113" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N28" s="85" t="s">
         <v>80</v>
@@ -27017,7 +27020,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="66" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>72</v>
@@ -27029,7 +27032,7 @@
         <v>521</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>136</v>
@@ -27053,7 +27056,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="113" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N29" s="85" t="s">
         <v>80</v>
@@ -28079,7 +28082,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>72</v>
@@ -28091,7 +28094,7 @@
         <v>521</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>145</v>
@@ -28115,7 +28118,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>80</v>
@@ -29141,7 +29144,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>72</v>
@@ -29153,7 +29156,7 @@
         <v>521</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>145</v>
@@ -29177,7 +29180,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="113" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N31" s="85" t="s">
         <v>80</v>
@@ -30203,7 +30206,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>72</v>
@@ -30215,7 +30218,7 @@
         <v>521</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>153</v>
@@ -30239,7 +30242,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="113" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N32" s="85" t="s">
         <v>80</v>
@@ -31265,7 +31268,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B33" s="67" t="s">
         <v>72</v>
@@ -31277,10 +31280,10 @@
         <v>521</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>93</v>
@@ -31301,7 +31304,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="113" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N33" s="85" t="s">
         <v>80</v>
@@ -32327,7 +32330,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="66" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>72</v>
@@ -32339,7 +32342,7 @@
         <v>521</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>131</v>
@@ -32363,7 +32366,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N34" s="85" t="s">
         <v>80</v>
@@ -33389,7 +33392,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="66" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>72</v>
@@ -33401,7 +33404,7 @@
         <v>521</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>136</v>
@@ -33425,7 +33428,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="113" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N35" s="85" t="s">
         <v>80</v>
@@ -34451,7 +34454,7 @@
     </row>
     <row r="36" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="66" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B36" s="67" t="s">
         <v>72</v>
@@ -34463,7 +34466,7 @@
         <v>521</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>145</v>
@@ -34487,7 +34490,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="113" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N36" s="85" t="s">
         <v>80</v>
@@ -34523,7 +34526,7 @@
     </row>
     <row r="37" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="66" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B37" s="67" t="s">
         <v>72</v>
@@ -34535,7 +34538,7 @@
         <v>521</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>153</v>
@@ -34559,7 +34562,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="113" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N37" s="85" t="s">
         <v>80</v>
@@ -34595,7 +34598,7 @@
     </row>
     <row r="38" spans="1:1028" s="77" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>72</v>
@@ -34607,10 +34610,10 @@
         <v>521</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G38" s="69" t="s">
         <v>93</v>
@@ -34631,7 +34634,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N38" s="85" t="s">
         <v>80</v>
@@ -34667,7 +34670,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>72</v>
@@ -34679,7 +34682,7 @@
         <v>521</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>131</v>
@@ -34703,7 +34706,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="113" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N39" s="85" t="s">
         <v>80</v>
@@ -35729,7 +35732,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>72</v>
@@ -35741,7 +35744,7 @@
         <v>521</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>136</v>
@@ -35765,7 +35768,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="113" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N40" s="85" t="s">
         <v>80</v>
@@ -36791,7 +36794,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>72</v>
@@ -36803,7 +36806,7 @@
         <v>521</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>145</v>
@@ -36827,7 +36830,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="113" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N41" s="85" t="s">
         <v>80</v>
@@ -37853,7 +37856,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>72</v>
@@ -37865,7 +37868,7 @@
         <v>521</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>153</v>
@@ -37889,7 +37892,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="113" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N42" s="85" t="s">
         <v>80</v>
@@ -38915,7 +38918,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>72</v>
@@ -38927,10 +38930,10 @@
         <v>521</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G43" s="69" t="s">
         <v>93</v>
@@ -38951,7 +38954,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="113" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N43" s="85" t="s">
         <v>80</v>
@@ -39977,7 +39980,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B44" s="67" t="s">
         <v>72</v>
@@ -39989,7 +39992,7 @@
         <v>521</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>131</v>
@@ -40013,7 +40016,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="113" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N44" s="85" t="s">
         <v>80</v>
@@ -41039,7 +41042,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B45" s="67" t="s">
         <v>72</v>
@@ -41051,7 +41054,7 @@
         <v>521</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F45" s="68" t="s">
         <v>136</v>
@@ -41075,7 +41078,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="113" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N45" s="85" t="s">
         <v>80</v>
@@ -42101,7 +42104,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="66" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>72</v>
@@ -42113,7 +42116,7 @@
         <v>521</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F46" s="68" t="s">
         <v>145</v>
@@ -42137,7 +42140,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="113" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N46" s="85" t="s">
         <v>80</v>
@@ -43163,7 +43166,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="66" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>72</v>
@@ -43175,7 +43178,7 @@
         <v>521</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>153</v>
@@ -43199,7 +43202,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="113" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N47" s="85" t="s">
         <v>80</v>
@@ -44225,7 +44228,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>72</v>
@@ -44237,10 +44240,10 @@
         <v>521</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G48" s="69" t="s">
         <v>93</v>
@@ -44261,7 +44264,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N48" s="85" t="s">
         <v>80</v>
@@ -45287,7 +45290,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>72</v>
@@ -45299,7 +45302,7 @@
         <v>521</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F49" s="68" t="s">
         <v>131</v>
@@ -45323,7 +45326,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="113" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N49" s="85" t="s">
         <v>80</v>
@@ -46349,7 +46352,7 @@
     </row>
     <row r="50" spans="1:1028" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>72</v>
@@ -46361,7 +46364,7 @@
         <v>521</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>136</v>
@@ -46385,7 +46388,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="113" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>80</v>
@@ -46421,7 +46424,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>72</v>
@@ -46433,7 +46436,7 @@
         <v>521</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>145</v>
@@ -46457,7 +46460,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="113" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N51" s="85" t="s">
         <v>80</v>
@@ -47483,7 +47486,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>72</v>
@@ -47495,7 +47498,7 @@
         <v>521</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>153</v>
@@ -47519,7 +47522,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N52" s="85" t="s">
         <v>80</v>
@@ -48545,7 +48548,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>72</v>
@@ -48557,10 +48560,10 @@
         <v>521</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G53" s="69" t="s">
         <v>93</v>
@@ -48581,7 +48584,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="113" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N53" s="85" t="s">
         <v>80</v>
@@ -49607,7 +49610,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B54" s="67" t="s">
         <v>72</v>
@@ -49619,7 +49622,7 @@
         <v>521</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>131</v>
@@ -49643,7 +49646,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="113" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N54" s="85" t="s">
         <v>80</v>
@@ -50669,7 +50672,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="78" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B55" s="67" t="s">
         <v>72</v>
@@ -50681,7 +50684,7 @@
         <v>521</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F55" s="68" t="s">
         <v>136</v>
@@ -50705,7 +50708,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="113" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N55" s="85" t="s">
         <v>80</v>
@@ -51731,7 +51734,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>72</v>
@@ -51743,7 +51746,7 @@
         <v>521</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F56" s="68" t="s">
         <v>145</v>
@@ -51767,7 +51770,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N56" s="85" t="s">
         <v>80</v>
@@ -72271,7 +72274,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GbtqGQlG+uvH7fqz1D7DgHNT8lsfp7sJc0FxoH2qRGGZQqOh+f4lZJw0ClOQLLe88RZJWejjJfuBcH4ASw+ziA==" saltValue="nFlSlisQq3Z1NxAA2xdnEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XjkAllgKaArO0BnzJ3r4hLtiLzDWpSVxIXw2fqAW/kRh8YWL8tRYlSRkZN0Lah5yZnT10dvb7tfqTaNzi8W/nQ==" saltValue="Q6bYP4VeeNu06RT7ecgiqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -72394,12 +72397,6 @@
           </x14:formula1>
           <xm:sqref>G15:G395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$D$3:$D$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>F15:F395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAFFBB78-152F-CC49-B904-7BF78A43F701}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$10</xm:f>
@@ -72424,6 +72421,12 @@
           </x14:formula1>
           <xm:sqref>C15:C394</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$D$3:$D$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F395</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -72437,8 +72440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AM214"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72468,7 +72471,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>44</v>
@@ -72631,7 +72634,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="131" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O4" s="129">
         <v>10</v>
@@ -72654,7 +72657,7 @@
         <v>486</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" s="126" t="s">
         <v>471</v>
@@ -72684,7 +72687,7 @@
         <v>97</v>
       </c>
       <c r="N5" s="131" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O5" s="129">
         <v>15</v>
@@ -72701,7 +72704,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B6" s="114" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>522</v>
@@ -72778,13 +72781,13 @@
         <v>110</v>
       </c>
       <c r="G8" s="128" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M8" s="134" t="s">
         <v>112</v>
       </c>
       <c r="N8" s="131" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O8" s="129">
         <v>30</v>
@@ -72798,7 +72801,7 @@
         <v>506</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>458</v>
@@ -72827,7 +72830,7 @@
         <v>469</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D10" s="114" t="s">
         <v>459</v>
@@ -72842,7 +72845,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O10" s="129">
         <v>40</v>
@@ -72860,13 +72863,13 @@
         <v>123</v>
       </c>
       <c r="G11" s="135" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M11" s="130" t="s">
         <v>125</v>
       </c>
       <c r="N11" s="131" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O11" s="129">
         <v>45</v>
@@ -72883,13 +72886,13 @@
         <v>127</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M12" s="134" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="131" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="O12" s="129">
         <v>50</v>
@@ -72906,13 +72909,13 @@
         <v>132</v>
       </c>
       <c r="G13" s="156" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="M13" s="134" t="s">
         <v>134</v>
       </c>
       <c r="N13" s="131" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O13" s="129">
         <v>55</v>
@@ -72936,7 +72939,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="131" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O14" s="129">
         <v>60</v>
@@ -72980,7 +72983,7 @@
         <v>146</v>
       </c>
       <c r="G16" s="128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M16" s="134" t="s">
         <v>148</v>
@@ -73024,7 +73027,7 @@
       <c r="B18" s="137"/>
       <c r="C18" s="137"/>
       <c r="D18" s="114" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F18" s="128" t="s">
         <v>154</v>
@@ -73036,7 +73039,7 @@
         <v>155</v>
       </c>
       <c r="N18" s="131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O18" s="129">
         <v>80</v>
@@ -73083,7 +73086,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="131" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="O20" s="129">
         <v>90</v>
@@ -73101,7 +73104,7 @@
         <v>163</v>
       </c>
       <c r="G21" s="128" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M21" s="134" t="s">
         <v>164</v>
@@ -73145,7 +73148,7 @@
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
       <c r="D23" s="114" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>169</v>
@@ -73173,7 +73176,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R24" s="128">
         <v>21</v>
@@ -73183,7 +73186,7 @@
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
       <c r="D25" s="114" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F25" s="128" t="s">
         <v>176</v>
@@ -73203,7 +73206,7 @@
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
       <c r="D26" s="114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F26" s="128" t="s">
         <v>179</v>
@@ -73213,7 +73216,7 @@
         <v>180</v>
       </c>
       <c r="N26" s="131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R26" s="128">
         <v>23</v>
@@ -73223,7 +73226,7 @@
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
       <c r="D27" s="114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F27" s="128" t="s">
         <v>183</v>
@@ -73243,7 +73246,7 @@
       <c r="B28" s="137"/>
       <c r="C28" s="137"/>
       <c r="D28" s="114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F28" s="128" t="s">
         <v>186</v>
@@ -73263,7 +73266,7 @@
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
       <c r="D29" s="114" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F29" s="128" t="s">
         <v>189</v>
@@ -73273,7 +73276,7 @@
         <v>190</v>
       </c>
       <c r="N29" s="131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R29" s="128">
         <v>26</v>
@@ -73313,7 +73316,7 @@
         <v>196</v>
       </c>
       <c r="N31" s="131" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R31" s="128">
         <v>28</v>
@@ -73332,7 +73335,7 @@
         <v>199</v>
       </c>
       <c r="N32" s="157" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R32" s="128">
         <v>29</v>
@@ -73342,7 +73345,7 @@
       <c r="B33" s="137"/>
       <c r="C33" s="137"/>
       <c r="D33" s="114" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="F33" s="128" t="s">
         <v>201</v>
@@ -73351,7 +73354,7 @@
         <v>202</v>
       </c>
       <c r="N33" s="131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R33" s="128">
         <v>30</v>
@@ -73361,7 +73364,7 @@
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
       <c r="D34" s="114" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F34" s="128" t="s">
         <v>204</v>
@@ -73370,7 +73373,7 @@
         <v>205</v>
       </c>
       <c r="N34" s="157" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R34" s="128">
         <v>31</v>
@@ -73380,7 +73383,7 @@
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
       <c r="D35" s="114" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F35" s="128" t="s">
         <v>207</v>
@@ -73399,7 +73402,7 @@
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
       <c r="D36" s="114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F36" s="128" t="s">
         <v>210</v>
@@ -73418,7 +73421,7 @@
       <c r="B37" s="137"/>
       <c r="C37" s="137"/>
       <c r="D37" s="114" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="F37" s="128" t="s">
         <v>213</v>
@@ -73437,7 +73440,7 @@
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F38" s="128" t="s">
         <v>217</v>
@@ -73456,7 +73459,7 @@
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
       <c r="D39" s="114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F39" s="128" t="s">
         <v>220</v>
@@ -73475,7 +73478,7 @@
       <c r="B40" s="137"/>
       <c r="C40" s="137"/>
       <c r="D40" s="114" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F40" s="128" t="s">
         <v>223</v>
@@ -73492,6 +73495,9 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" s="137"/>
+      <c r="D41" s="114" t="s">
+        <v>496</v>
+      </c>
       <c r="F41" s="128" t="s">
         <v>226</v>
       </c>
@@ -73541,7 +73547,7 @@
         <v>233</v>
       </c>
       <c r="N44" s="131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R44" s="128">
         <v>41</v>
@@ -73555,7 +73561,7 @@
         <v>235</v>
       </c>
       <c r="N45" s="131" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R45" s="128">
         <v>42</v>
@@ -73569,7 +73575,7 @@
         <v>237</v>
       </c>
       <c r="N46" s="131" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R46" s="128">
         <v>43</v>
@@ -73583,7 +73589,7 @@
         <v>239</v>
       </c>
       <c r="N47" s="157" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R47" s="128">
         <v>44</v>
@@ -73625,7 +73631,7 @@
         <v>245</v>
       </c>
       <c r="N50" s="131" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R50" s="128">
         <v>47</v>
@@ -73667,7 +73673,7 @@
         <v>251</v>
       </c>
       <c r="N53" s="131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R53" s="128">
         <v>50</v>
@@ -73681,7 +73687,7 @@
         <v>253</v>
       </c>
       <c r="N54" s="131" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R54" s="128">
         <v>51</v>
@@ -73695,7 +73701,7 @@
         <v>255</v>
       </c>
       <c r="N55" s="131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R55" s="128">
         <v>52</v>
@@ -73737,7 +73743,7 @@
         <v>261</v>
       </c>
       <c r="N58" s="131" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R58" s="128">
         <v>55</v>
@@ -73765,7 +73771,7 @@
         <v>265</v>
       </c>
       <c r="N60" s="131" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="R60" s="128">
         <v>57</v>
@@ -73779,7 +73785,7 @@
         <v>267</v>
       </c>
       <c r="N61" s="131" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R61" s="128">
         <v>58</v>
@@ -73793,7 +73799,7 @@
         <v>269</v>
       </c>
       <c r="N62" s="131" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R62" s="128">
         <v>59</v>
@@ -73821,7 +73827,7 @@
         <v>273</v>
       </c>
       <c r="N64" s="131" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R64" s="128">
         <v>61</v>
@@ -73849,7 +73855,7 @@
         <v>277</v>
       </c>
       <c r="N66" s="131" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R66" s="128">
         <v>63</v>
@@ -73863,7 +73869,7 @@
         <v>279</v>
       </c>
       <c r="N67" s="131" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R67" s="128">
         <v>64</v>
@@ -73891,7 +73897,7 @@
         <v>283</v>
       </c>
       <c r="N69" s="157" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R69" s="128">
         <v>66</v>
@@ -73933,7 +73939,7 @@
         <v>289</v>
       </c>
       <c r="N72" s="157" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R72" s="128">
         <v>69</v>
@@ -73989,7 +73995,7 @@
         <v>297</v>
       </c>
       <c r="N76" s="157" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R76" s="128">
         <v>73</v>
@@ -74017,7 +74023,7 @@
         <v>301</v>
       </c>
       <c r="N78" s="157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R78" s="128">
         <v>75</v>
@@ -74855,51 +74861,51 @@
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F206" s="132" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F207" s="128" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F208" s="132" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F209" s="128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F210" s="128" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F211" s="128" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F212" s="128" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F213" s="128" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F214" s="128" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZkEFQwrdm3lFFGCp6toN04uZQlNJKk1KIo0PxCp6crRbX7trMuYvpJWZpRbOu1YggcYE7uqVXJ+je0CxbdfNMg==" saltValue="n9J2pHKiqVILciALkLvwNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SJt2qR4NNL89gjMLz3lb8KS7U2Wy/60p9MEG62c44OLvpVapJvqU92XgGY/Lm1PgddmhSAS4QKVtPeoEyj1TqQ==" saltValue="3kDAI0+xsp0mqQhPySbK0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
